--- a/tmp/Gods of the deep - CCSL.converted/Gods of the deep - CCSL.converted-recap.xlsx
+++ b/tmp/Gods of the deep - CCSL.converted/Gods of the deep - CCSL.converted-recap.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,318 +553,318 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4 - JAMES PETERS</t>
+          <t>4 - JAMES PETER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5026</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5 - HANK Oâ€™CONNELL</t>
+          <t>5 - JAMES PETERS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="C8" t="n">
-        <v>1911</v>
+        <v>5011</v>
       </c>
       <c r="D8" t="n">
-        <v>48</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6 - GORDON ATKINS</t>
+          <t>6 - HANK Oâ€™CONNELL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>2632</v>
+        <v>1911</v>
       </c>
       <c r="D9" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7 - JOSEPH MEEKER</t>
+          <t>7 - GORDON ATKINS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C10" t="n">
-        <v>365</v>
+        <v>2632</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8 - CHRISTINE HARRIS</t>
+          <t>8 - JOSEPH MEEKER</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>6530</v>
+        <v>365</v>
       </c>
       <c r="D11" t="n">
-        <v>164</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9 - JED PICKMAN</t>
+          <t>9 - CHRISTINE HARRIS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="C12" t="n">
-        <v>1191</v>
+        <v>6530</v>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10 - EVERYONE</t>
+          <t>10 - JED PICKMAN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>41</v>
+        <v>1191</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11 - RACHEL</t>
+          <t>11 - EVERYONE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>1030</v>
+        <v>41</v>
       </c>
       <c r="D14" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12 - CAMERON</t>
+          <t>12 - RACHEL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>504</v>
+        <v>1030</v>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13 - JOE MEEKER</t>
+          <t>13 - CAMERON</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>1582</v>
+        <v>504</v>
       </c>
       <c r="D16" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14 - JED PECKHAM</t>
+          <t>14 - JOE MEEKER</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>58</v>
+        <v>1582</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15 - WALTON PETERS</t>
+          <t>15 - JED PECKHAM</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16 - GORDANS ATIKINS</t>
+          <t>16 - WALTON PETERS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1591</v>
+        <v>103</v>
       </c>
       <c r="D19" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>17 - HANK Oâ€™CONNOLL</t>
+          <t>17 - GORDANS ATIKINS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C20" t="n">
-        <v>451</v>
+        <v>1591</v>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18 - JED PECKMAN</t>
+          <t>18 - HANK Oâ€™CONNOLL</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>932</v>
+        <v>451</v>
       </c>
       <c r="D21" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>19 - JOE WEEKER</t>
+          <t>19 - JED PECKMAN</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C22" t="n">
-        <v>898</v>
+        <v>932</v>
       </c>
       <c r="D22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20 - CONTROL SCREENS</t>
+          <t>20 - JOE WEEKER</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C23" t="n">
-        <v>197</v>
+        <v>898</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21 - JOE WEETER</t>
+          <t>21 - CONTROL SCREENS</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>938</v>
+        <v>197</v>
       </c>
       <c r="D24" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22 - RADIO</t>
+          <t>22 - JOE WEETER</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>41</v>
+        <v>938</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>23 - JIMâ€™S DAD</t>
+          <t>23 - RADIO</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="D26" t="n">
         <v>2</v>
@@ -873,16 +873,32 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>24 - FEMALE DOCTOR</t>
+          <t>24 - JIMâ€™S DAD</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>3</v>
       </c>
       <c r="C27" t="n">
+        <v>78</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>25 - FEMALE DOCTOR</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
         <v>115</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D28" t="n">
         <v>3</v>
       </c>
     </row>
